--- a/status.xlsx
+++ b/status.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ppystatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD1C5A6-5340-462E-928B-BF706A827B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>ころせら</t>
   </si>
@@ -167,17 +168,21 @@
   </si>
   <si>
     <t>80%+</t>
+  </si>
+  <si>
+    <t>Banned</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,7 +190,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,7 +198,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -202,7 +207,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,7 +216,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -220,7 +225,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -228,7 +233,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -236,7 +241,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -244,7 +249,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -252,7 +257,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,7 +266,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -270,7 +275,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -278,7 +283,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -287,7 +292,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -295,7 +300,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,7 +309,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -313,7 +318,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -321,7 +326,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -699,30 +711,30 @@
     <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -999,19 +1011,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.25" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="5" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1374,7 +1386,7 @@
         <v>0.8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1455,6 +1467,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ppystatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD1C5A6-5340-462E-928B-BF706A827B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B353A-76FE-4890-B32C-64B4770F0D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>ころせら</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve"> アスペル⁂ガーデン</t>
-  </si>
-  <si>
-    <t>Normal(incomplete version)</t>
   </si>
   <si>
     <t>キュートなカノジョ-pepoyo cover</t>
@@ -1014,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1042,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -1119,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -1144,7 +1141,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1160,7 +1157,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
@@ -1295,7 +1292,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
@@ -1306,7 +1303,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>39</v>
@@ -1386,7 +1383,7 @@
         <v>0.8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1416,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>39</v>
@@ -1435,7 +1432,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2">
         <v>0.05</v>
@@ -1446,10 +1443,10 @@
     </row>
     <row r="39" spans="1:3" ht="31.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>34</v>
@@ -1457,10 +1454,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>34</v>

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ppystatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B353A-76FE-4890-B32C-64B4770F0D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E23B4F-6660-46FE-91B6-B22FBAA8E4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="1350" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="status" sheetId="1" r:id="rId1"/>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1108,7 +1108,7 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>0.3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>0.4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>0.5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3">
